--- a/chapter_3_vpa_mesc_cyst_emb_redo/mesc_combined/results/vpa_only_exp1/vpa_exp_pathway_count_workbook.xlsx
+++ b/chapter_3_vpa_mesc_cyst_emb_redo/mesc_combined/results/vpa_only_exp1/vpa_exp_pathway_count_workbook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dasha\Documents\GitHub\dissertation_related\chapter_3_vpa_mesc_cyst_emb_redo\mesc_combined\results\vpa_only_exp1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8A8216-7D52-49DF-BA3E-E79760FCED62}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDCF306-EA3E-48CA-A598-2B96C7AFB0AC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24150" windowHeight="6240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="sorted_found_rm_pathways" sheetId="4" r:id="rId4"/>
     <sheet name="filtered_sort_percent" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -8187,7 +8187,7 @@
   <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8195,7 +8195,6 @@
     <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -8214,710 +8213,710 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>66.6666666666666</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
         <v>12</v>
       </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
       <c r="D3">
-        <v>58.3333333333333</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>57.142857142857103</v>
+        <v>33.299999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>33.299999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B8">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>48</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>42.857142857142797</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>40</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>33.3333333333333</v>
+        <v>33.299999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>33.3333333333333</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>33.3333333333333</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>33.3333333333333</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>33.3333333333333</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>30.769230769230699</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>29.411764705882302</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>231</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>28.571428571428498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>28.571428571428498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B21">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>27.7777777777777</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>25</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>25</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="B27">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>23.3333333333333</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>22.2222222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C29">
         <v>4</v>
       </c>
       <c r="D29">
-        <v>21.052631578947299</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B30">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>20</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="B33">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>19.047619047619001</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="B34">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>18.181818181818102</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="B35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>16.6666666666666</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>249</v>
       </c>
       <c r="B36">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>14.285714285714199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D37">
-        <v>14.285714285714199</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>14.285714285714199</v>
+        <v>33.299999999999997</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="B39">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>14.285714285714199</v>
+        <v>33.299999999999997</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="B40">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40">
-        <v>11.1111111111111</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>98</v>
+        <v>229</v>
       </c>
       <c r="B41">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42">
-        <v>9.0909090909090899</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="B43">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43">
-        <v>7.1428571428571397</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>246</v>
       </c>
       <c r="B44">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>6.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>198</v>
+        <v>75</v>
       </c>
       <c r="B51">
         <v>3</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>224</v>
+        <v>171</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -8928,10 +8927,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="B53">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -8942,10 +8941,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="B54">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -8970,10 +8969,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>246</v>
+        <v>191</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -8984,10 +8983,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>247</v>
+        <v>197</v>
       </c>
       <c r="B57">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -8998,10 +8997,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="B58">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -9011,8 +9010,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D58">
-    <sortCondition descending="1" ref="D2:D58"/>
+  <sortState ref="A2:E58">
+    <sortCondition descending="1" ref="B2:B58"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
